--- a/TestCases/InputSheet.xlsx
+++ b/TestCases/InputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_iWAgent 1.16\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58623EBB-40A9-4719-9BE0-46879D784FA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0D98D7-6AC5-4FAE-9ADF-AFB267B3977E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="44" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="43" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="12" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15776" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15812" uniqueCount="1128">
   <si>
     <t>Description</t>
   </si>
@@ -1803,9 +1803,6 @@
   </si>
   <si>
     <t>//li[contains(text(),'Castillo, Martha')]</t>
-  </si>
-  <si>
-    <t>To hover on actual date</t>
   </si>
   <si>
     <t>Hover on actual date field</t>
@@ -2742,9 +2739,6 @@
     <t>//span[normalize-space()='Test comment']</t>
   </si>
   <si>
-    <t>//span[@id='planningForm_0#projectedDeliveryDate#0#25']</t>
-  </si>
-  <si>
     <t>//td[normalize-space()='01-Aug-2021']</t>
   </si>
   <si>
@@ -3390,9 +3384,6 @@
     <t>ETANERCEPT 50 mg Solution For Injection In Pre-Filled Pen Enbrel</t>
   </si>
   <si>
-    <t>//span[contains(text(),'PDS NAME')]/../../../../../../tbody/tr[1]/td[4]</t>
-  </si>
-  <si>
     <t>//body/div[@id='root']/div[1]/div[1]/section[1]/section[1]/main[1]/div[2]/div[1]/div[1]/div[5]/div[1]/div[3]/div[1]/form[1]/div[1]/div[1]/div[1]/div[2]/button[1]</t>
   </si>
   <si>
@@ -3475,6 +3466,15 @@
   </si>
   <si>
     <t>waitsmedium</t>
+  </si>
+  <si>
+    <t>//span[@id='planningForm_0#projectedDeliveryDate#0#77']</t>
+  </si>
+  <si>
+    <t>To hover on Projected  date</t>
+  </si>
+  <si>
+    <t>//td[contains(text(),'ETANERCEPT 50 mg Solution For Injection In Pre-Fil')]</t>
   </si>
 </sst>
 </file>
@@ -3620,7 +3620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3868,6 +3868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4251,7 +4252,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4300,7 +4301,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -4355,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -4407,7 +4408,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -4416,7 +4417,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -4822,7 +4823,7 @@
         <v>212</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>216</v>
@@ -5271,7 +5272,7 @@
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>7</v>
@@ -5283,7 +5284,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>3</v>
@@ -5341,7 +5342,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>3</v>
@@ -5399,7 +5400,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -5515,7 +5516,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -5634,7 +5635,7 @@
         <v>212</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>211</v>
@@ -5776,7 +5777,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5825,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -5880,7 +5881,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -5932,7 +5933,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -5941,7 +5942,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -6344,7 +6345,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -6390,25 +6391,25 @@
     </row>
     <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -6460,7 +6461,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
@@ -6576,7 +6577,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>3</v>
@@ -6634,7 +6635,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>3</v>
@@ -6840,7 +6841,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6889,7 +6890,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -6944,7 +6945,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -6996,7 +6997,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -7005,7 +7006,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -7176,7 +7177,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>3</v>
@@ -7292,7 +7293,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>3</v>
@@ -7350,7 +7351,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>3</v>
@@ -7408,7 +7409,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>3</v>
@@ -7466,7 +7467,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>3</v>
@@ -7524,7 +7525,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>3</v>
@@ -7576,16 +7577,16 @@
         <v>22</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>133</v>
@@ -7845,7 +7846,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7894,7 +7895,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -7949,7 +7950,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -8001,7 +8002,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -8010,7 +8011,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -8181,7 +8182,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>3</v>
@@ -8355,7 +8356,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>3</v>
@@ -8413,7 +8414,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>3</v>
@@ -8560,7 +8561,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8609,7 +8610,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -8664,7 +8665,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -8716,7 +8717,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -8725,7 +8726,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -8884,7 +8885,7 @@
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>40</v>
@@ -8896,13 +8897,13 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>3</v>
@@ -8942,7 +8943,7 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>23</v>
@@ -8957,10 +8958,10 @@
         <v>335</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>3</v>
@@ -9101,7 +9102,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9150,7 +9151,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -9205,7 +9206,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -9257,7 +9258,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -9266,7 +9267,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -9437,7 +9438,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>3</v>
@@ -9816,7 +9817,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9865,7 +9866,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -9920,7 +9921,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -9972,7 +9973,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -9981,7 +9982,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -10384,7 +10385,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>3</v>
@@ -10619,7 +10620,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>216</v>
@@ -10674,7 +10675,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>245</v>
@@ -10732,7 +10733,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>245</v>
@@ -10879,7 +10880,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10928,7 +10929,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -10983,7 +10984,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -11035,7 +11036,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -11044,7 +11045,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -11331,7 +11332,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>3</v>
@@ -11522,7 +11523,7 @@
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>3</v>
@@ -11534,13 +11535,13 @@
         <v>42</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F24" s="25">
         <v>44180</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>3</v>
@@ -11682,7 +11683,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11731,7 +11732,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -11786,7 +11787,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -11838,7 +11839,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -11847,7 +11848,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -12630,7 +12631,7 @@
         <v>212</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>216</v>
@@ -12743,7 +12744,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F38" s="41">
         <v>44495</v>
@@ -12891,7 +12892,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12940,7 +12941,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -12995,7 +12996,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -13047,7 +13048,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -13056,7 +13057,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -13343,7 +13344,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>3</v>
@@ -13401,7 +13402,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F19" s="26">
         <v>44409</v>
@@ -13459,7 +13460,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>3</v>
@@ -13575,7 +13576,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F25" s="26">
         <v>44378</v>
@@ -13696,17 +13697,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -13734,7 +13735,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13783,7 +13784,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -13838,7 +13839,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -13890,7 +13891,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
@@ -13899,7 +13900,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -14087,7 +14088,7 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>40</v>
@@ -14099,13 +14100,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>3</v>
@@ -14157,7 +14158,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>3</v>
@@ -14215,7 +14216,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>3</v>
@@ -14360,7 +14361,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>3</v>
@@ -14585,7 +14586,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14634,7 +14635,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -14689,7 +14690,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -14741,7 +14742,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -14750,7 +14751,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -15156,7 +15157,7 @@
         <v>212</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>216</v>
@@ -15275,17 +15276,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -15313,7 +15314,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -15362,7 +15363,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -15417,7 +15418,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -15469,7 +15470,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
@@ -15478,7 +15479,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -15637,7 +15638,7 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>40</v>
@@ -15649,13 +15650,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>3</v>
@@ -15707,7 +15708,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>3</v>
@@ -15753,25 +15754,25 @@
     </row>
     <row r="18" spans="1:9" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>743</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>744</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>3</v>
@@ -15823,7 +15824,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>3</v>
@@ -15939,7 +15940,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>3</v>
@@ -16109,17 +16110,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -16147,7 +16148,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16196,7 +16197,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -16251,7 +16252,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -16303,7 +16304,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
@@ -16312,7 +16313,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -16471,7 +16472,7 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>40</v>
@@ -16483,13 +16484,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>3</v>
@@ -16541,7 +16542,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>3</v>
@@ -16587,25 +16588,25 @@
     </row>
     <row r="18" spans="1:9" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
+        <v>742</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>743</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>744</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>3</v>
@@ -16657,7 +16658,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>3</v>
@@ -16773,7 +16774,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>3</v>
@@ -16889,7 +16890,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>3</v>
@@ -16947,7 +16948,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>3</v>
@@ -17063,7 +17064,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>3</v>
@@ -17233,17 +17234,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -17271,7 +17272,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17320,7 +17321,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -17375,7 +17376,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -17427,7 +17428,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
@@ -17436,7 +17437,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -17595,7 +17596,7 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -17607,7 +17608,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -17665,7 +17666,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>3</v>
@@ -17723,7 +17724,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>3</v>
@@ -17839,10 +17840,10 @@
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>274</v>
@@ -17897,7 +17898,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>3</v>
@@ -17955,7 +17956,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>3</v>
@@ -18013,7 +18014,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>3</v>
@@ -18065,16 +18066,16 @@
         <v>22</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>386</v>
@@ -18175,7 +18176,7 @@
     </row>
     <row r="34" spans="1:9" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>23</v>
@@ -18187,13 +18188,13 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>877</v>
       </c>
-      <c r="F34" s="30" t="s">
-        <v>878</v>
-      </c>
       <c r="G34" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>3</v>
@@ -18295,17 +18296,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -18333,7 +18334,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18382,7 +18383,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>315</v>
@@ -18437,10 +18438,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G6" s="30" t="s">
         <v>333</v>
@@ -18498,7 +18499,7 @@
         <v>331</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>330</v>
@@ -18553,7 +18554,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>3</v>
@@ -18611,7 +18612,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>3</v>
@@ -18727,7 +18728,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F16" s="37" t="s">
         <v>3</v>
@@ -18831,7 +18832,7 @@
     </row>
     <row r="20" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>24</v>
@@ -18849,7 +18850,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>3</v>
@@ -18933,7 +18934,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -18988,7 +18989,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
@@ -19046,7 +19047,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>3</v>
@@ -19104,7 +19105,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>3</v>
@@ -19165,7 +19166,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>293</v>
@@ -19278,17 +19279,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -19316,7 +19317,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -19365,7 +19366,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -19420,7 +19421,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -19582,25 +19583,25 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>578</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>579</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>3</v>
@@ -19640,25 +19641,25 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>581</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>582</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>3</v>
@@ -19698,25 +19699,25 @@
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="17" t="s">
         <v>584</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>585</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>3</v>
@@ -19891,7 +19892,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>45</v>
@@ -22315,10 +22316,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="107"/>
+      <c r="B1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -22346,7 +22347,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -22395,10 +22396,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>3</v>
@@ -22450,7 +22451,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>3</v>
@@ -22508,7 +22509,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>3</v>
@@ -22566,7 +22567,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>3</v>
@@ -22618,16 +22619,16 @@
         <v>22</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>386</v>
@@ -22746,7 +22747,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -22820,15 +22821,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>738</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
+      <c r="A1" s="108" t="s">
+        <v>737</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -22856,7 +22857,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -22905,7 +22906,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>353</v>
@@ -22960,7 +22961,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>3</v>
@@ -23006,13 +23007,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
@@ -23021,7 +23022,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -23064,7 +23065,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>24</v>
@@ -23180,7 +23181,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>40</v>
@@ -23198,7 +23199,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -23238,7 +23239,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>24</v>
@@ -23256,7 +23257,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -23296,7 +23297,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>24</v>
@@ -23308,7 +23309,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>3</v>
@@ -23354,7 +23355,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>40</v>
@@ -23366,13 +23367,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>3</v>
@@ -23412,7 +23413,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>24</v>
@@ -23424,7 +23425,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>3</v>
@@ -23441,7 +23442,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>24</v>
@@ -23470,7 +23471,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>24</v>
@@ -23482,7 +23483,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>3</v>
@@ -23528,7 +23529,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>24</v>
@@ -23586,7 +23587,7 @@
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>40</v>
@@ -23604,7 +23605,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>3</v>
@@ -23644,7 +23645,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>24</v>
@@ -23656,7 +23657,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>3</v>
@@ -23702,7 +23703,7 @@
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -23714,10 +23715,10 @@
         <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>408</v>
@@ -23731,7 +23732,7 @@
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
@@ -23743,10 +23744,10 @@
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>407</v>
@@ -23824,11 +23825,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -23856,7 +23857,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -23905,7 +23906,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>353</v>
@@ -23960,7 +23961,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>3</v>
@@ -24012,7 +24013,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
@@ -24021,7 +24022,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -24557,7 +24558,7 @@
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>24</v>
@@ -24569,13 +24570,13 @@
         <v>6</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>3</v>
@@ -24627,10 +24628,10 @@
         <v>6</v>
       </c>
       <c r="E29" s="66" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G29" s="66" t="s">
         <v>413</v>
@@ -24778,7 +24779,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>3</v>
@@ -24882,15 +24883,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
       <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -24919,7 +24920,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -24968,7 +24969,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>353</v>
@@ -25023,7 +25024,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -25075,7 +25076,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
@@ -25084,7 +25085,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -25243,7 +25244,7 @@
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>40</v>
@@ -25255,13 +25256,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -25313,7 +25314,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F16" s="50" t="s">
         <v>3</v>
@@ -25371,7 +25372,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F18" s="50" t="s">
         <v>3</v>
@@ -25429,7 +25430,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>3</v>
@@ -25719,7 +25720,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>3</v>
@@ -25780,7 +25781,7 @@
         <v>273</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>442</v>
@@ -25881,7 +25882,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -25930,7 +25931,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -25985,7 +25986,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -26037,7 +26038,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -26046,7 +26047,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -26518,12 +26519,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>673</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="A1" s="108" t="s">
+        <v>672</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -26551,7 +26552,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -26600,10 +26601,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>3</v>
@@ -26655,7 +26656,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -26707,7 +26708,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
@@ -26716,7 +26717,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -26875,7 +26876,7 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -26887,7 +26888,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -26945,7 +26946,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>3</v>
@@ -26991,7 +26992,7 @@
     </row>
     <row r="18" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>23</v>
@@ -27003,7 +27004,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>449</v>
@@ -27142,7 +27143,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -27191,7 +27192,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>353</v>
@@ -27246,7 +27247,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>3</v>
@@ -27298,7 +27299,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -27307,7 +27308,7 @@
         <v>373</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -27466,7 +27467,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>40</v>
@@ -27478,13 +27479,13 @@
         <v>6</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -27536,7 +27537,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>3</v>
@@ -27594,7 +27595,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>3</v>
@@ -27710,7 +27711,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F21" s="35" t="s">
         <v>3</v>
@@ -27826,7 +27827,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>3</v>
@@ -27884,7 +27885,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F27" s="35" t="s">
         <v>3</v>
@@ -27942,7 +27943,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>3</v>
@@ -28000,7 +28001,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>3</v>
@@ -28110,7 +28111,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>6</v>
@@ -28119,7 +28120,7 @@
         <v>373</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>310</v>
@@ -28278,7 +28279,7 @@
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>40</v>
@@ -28290,13 +28291,13 @@
         <v>6</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F41" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H41" s="30" t="s">
         <v>3</v>
@@ -28336,7 +28337,7 @@
     </row>
     <row r="43" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>24</v>
@@ -28348,7 +28349,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F43" s="35" t="s">
         <v>3</v>
@@ -28394,7 +28395,7 @@
     </row>
     <row r="45" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B45" s="35" t="s">
         <v>24</v>
@@ -28406,7 +28407,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F45" s="35" t="s">
         <v>3</v>
@@ -28452,7 +28453,7 @@
     </row>
     <row r="47" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>24</v>
@@ -28510,7 +28511,7 @@
     </row>
     <row r="49" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>24</v>
@@ -28522,7 +28523,7 @@
         <v>6</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F49" s="35" t="s">
         <v>3</v>
@@ -28568,7 +28569,7 @@
     </row>
     <row r="51" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B51" s="35" t="s">
         <v>23</v>
@@ -28626,7 +28627,7 @@
     </row>
     <row r="53" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>24</v>
@@ -28638,7 +28639,7 @@
         <v>6</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F53" s="35" t="s">
         <v>3</v>
@@ -28684,7 +28685,7 @@
     </row>
     <row r="55" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>24</v>
@@ -28696,7 +28697,7 @@
         <v>6</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F55" s="35" t="s">
         <v>3</v>
@@ -28742,7 +28743,7 @@
     </row>
     <row r="57" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B57" s="35" t="s">
         <v>24</v>
@@ -28800,7 +28801,7 @@
     </row>
     <row r="59" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>24</v>
@@ -28812,7 +28813,7 @@
         <v>6</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F59" s="35" t="s">
         <v>3</v>
@@ -28940,7 +28941,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -28989,10 +28990,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>3</v>
@@ -29044,7 +29045,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>3</v>
@@ -29154,7 +29155,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>6</v>
@@ -29163,7 +29164,7 @@
         <v>134</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>483</v>
@@ -29415,7 +29416,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>6</v>
@@ -29424,7 +29425,7 @@
         <v>134</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>480</v>
@@ -29540,7 +29541,7 @@
         <v>406</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>477</v>
@@ -29647,7 +29648,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>6</v>
@@ -29656,7 +29657,7 @@
         <v>134</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>475</v>
@@ -29879,7 +29880,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>6</v>
@@ -29888,7 +29889,7 @@
         <v>134</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>470</v>
@@ -30227,7 +30228,7 @@
         <v>22</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D46" s="35" t="s">
         <v>6</v>
@@ -30236,7 +30237,7 @@
         <v>134</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G46" s="34" t="s">
         <v>456</v>
@@ -30430,7 +30431,7 @@
         <v>22</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D53" s="35" t="s">
         <v>6</v>
@@ -30439,7 +30440,7 @@
         <v>134</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G53" s="34" t="s">
         <v>456</v>
@@ -30626,7 +30627,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -30675,10 +30676,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>3</v>
@@ -30730,7 +30731,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>3</v>
@@ -30840,7 +30841,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>6</v>
@@ -30849,7 +30850,7 @@
         <v>134</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>483</v>
@@ -30965,7 +30966,7 @@
         <v>402</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>386</v>
@@ -31072,7 +31073,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>6</v>
@@ -31081,7 +31082,7 @@
         <v>134</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G17" s="34" t="s">
         <v>480</v>
@@ -31197,7 +31198,7 @@
         <v>401</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>477</v>
@@ -31304,7 +31305,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>6</v>
@@ -31313,7 +31314,7 @@
         <v>134</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G25" s="34" t="s">
         <v>475</v>
@@ -31429,7 +31430,7 @@
         <v>462</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G29" s="34" t="s">
         <v>472</v>
@@ -31536,7 +31537,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>6</v>
@@ -31545,7 +31546,7 @@
         <v>134</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>470</v>
@@ -31768,7 +31769,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>6</v>
@@ -31777,7 +31778,7 @@
         <v>134</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G41" s="34" t="s">
         <v>456</v>
@@ -31971,7 +31972,7 @@
         <v>22</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>6</v>
@@ -31980,7 +31981,7 @@
         <v>134</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G48" s="34" t="s">
         <v>456</v>
@@ -32096,7 +32097,7 @@
         <v>453</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>451</v>
@@ -32170,7 +32171,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -32199,7 +32200,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -32248,10 +32249,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>3</v>
@@ -32303,7 +32304,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -32413,7 +32414,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>6</v>
@@ -32422,7 +32423,7 @@
         <v>134</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>491</v>
@@ -32523,7 +32524,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>3</v>
@@ -32538,10 +32539,10 @@
         <v>455</v>
       </c>
       <c r="F14" s="47" t="s">
+        <v>831</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>832</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>833</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -32596,10 +32597,10 @@
         <v>455</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -32700,7 +32701,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -32749,10 +32750,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>3</v>
@@ -32804,7 +32805,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -32914,7 +32915,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>6</v>
@@ -32923,7 +32924,7 @@
         <v>134</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>496</v>
@@ -33114,7 +33115,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -33143,7 +33144,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -33192,10 +33193,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>3</v>
@@ -33247,7 +33248,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -33299,7 +33300,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
@@ -33308,7 +33309,7 @@
         <v>373</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -33479,7 +33480,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F14" s="53" t="s">
         <v>488</v>
@@ -33557,7 +33558,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -33586,7 +33587,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -33635,7 +33636,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G4" s="87" t="s">
         <v>315</v>
@@ -33684,16 +33685,16 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>333</v>
@@ -33742,7 +33743,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -33751,7 +33752,7 @@
         <v>331</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>330</v>
@@ -33806,7 +33807,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>3</v>
@@ -33864,7 +33865,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>3</v>
@@ -33916,7 +33917,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
@@ -33925,7 +33926,7 @@
         <v>324</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>323</v>
@@ -33980,7 +33981,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>3</v>
@@ -34336,7 +34337,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -34365,7 +34366,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -34414,7 +34415,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="87" t="s">
         <v>353</v>
@@ -34469,7 +34470,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
@@ -34521,7 +34522,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -34530,7 +34531,7 @@
         <v>373</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -34689,7 +34690,7 @@
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>40</v>
@@ -34701,13 +34702,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>3</v>
@@ -34759,7 +34760,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>3</v>
@@ -34817,7 +34818,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F18" s="87" t="s">
         <v>3</v>
@@ -34869,16 +34870,16 @@
         <v>22</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D20" s="86" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G20" s="87" t="s">
         <v>524</v>
@@ -34933,7 +34934,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F22" s="87" t="s">
         <v>3</v>
@@ -34991,10 +34992,10 @@
         <v>6</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F24" s="87" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G24" s="87" t="s">
         <v>520</v>
@@ -35101,7 +35102,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="86" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>6</v>
@@ -35110,7 +35111,7 @@
         <v>373</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>310</v>
@@ -35298,7 +35299,7 @@
     </row>
     <row r="35" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>40</v>
@@ -35310,13 +35311,13 @@
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>3</v>
@@ -35368,7 +35369,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>3</v>
@@ -35426,7 +35427,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="87" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F39" s="87" t="s">
         <v>3</v>
@@ -35478,16 +35479,16 @@
         <v>22</v>
       </c>
       <c r="C41" s="86" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D41" s="86" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="87" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F41" s="87" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G41" s="87" t="s">
         <v>524</v>
@@ -35542,7 +35543,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F43" s="87" t="s">
         <v>3</v>
@@ -35600,7 +35601,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="87" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F45" s="87" t="s">
         <v>487</v>
@@ -35676,7 +35677,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -35705,7 +35706,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
@@ -35754,7 +35755,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>315</v>
@@ -35803,16 +35804,16 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>333</v>
@@ -35861,7 +35862,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -35870,7 +35871,7 @@
         <v>331</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>330</v>
@@ -35925,7 +35926,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>3</v>
@@ -35983,7 +35984,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>3</v>
@@ -36035,7 +36036,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
@@ -36044,7 +36045,7 @@
         <v>324</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>323</v>
@@ -36099,7 +36100,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>3</v>
@@ -36203,7 +36204,7 @@
     </row>
     <row r="20" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
@@ -36276,10 +36277,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="91" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G22" s="87" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H22" s="86" t="s">
         <v>3</v>
@@ -36331,7 +36332,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F24" s="86" t="s">
         <v>3</v>
@@ -36435,7 +36436,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>24</v>
@@ -36447,13 +36448,13 @@
         <v>6</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>662</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>663</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>3</v>
@@ -36522,7 +36523,7 @@
     </row>
     <row r="31" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>7</v>
@@ -36534,13 +36535,13 @@
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>3</v>
@@ -36563,7 +36564,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>295</v>
@@ -36592,7 +36593,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>297</v>
@@ -36621,7 +36622,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>298</v>
@@ -36650,7 +36651,7 @@
         <v>6</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>299</v>
@@ -36679,7 +36680,7 @@
         <v>6</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>300</v>
@@ -36708,7 +36709,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>301</v>
@@ -36842,7 +36843,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -36891,7 +36892,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -36946,7 +36947,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -36998,7 +36999,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -37007,7 +37008,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -37476,16 +37477,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>633</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="110"/>
+      <c r="A1" s="110" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
       <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -37514,7 +37515,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -37563,10 +37564,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>3</v>
@@ -37618,7 +37619,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -37664,7 +37665,7 @@
     </row>
     <row r="8" spans="1:9" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>24</v>
@@ -37676,13 +37677,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>3</v>
@@ -37722,7 +37723,7 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B10" s="30" t="s">
         <v>24</v>
@@ -37734,13 +37735,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -37777,22 +37778,22 @@
     </row>
     <row r="12" spans="1:9" s="36" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>310</v>
@@ -37835,7 +37836,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>24</v>
@@ -37847,13 +37848,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -37905,10 +37906,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>492</v>
@@ -38012,7 +38013,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -38041,7 +38042,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -38090,10 +38091,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H4" s="35" t="s">
         <v>3</v>
@@ -38145,7 +38146,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -38197,7 +38198,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
@@ -38206,7 +38207,7 @@
         <v>373</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -38377,7 +38378,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>3</v>
@@ -38435,7 +38436,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>3</v>
@@ -38496,7 +38497,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>537</v>
@@ -38601,7 +38602,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -38630,7 +38631,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -38679,7 +38680,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="87" t="s">
         <v>353</v>
@@ -38734,7 +38735,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="86" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="86" t="s">
         <v>3</v>
@@ -38786,7 +38787,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -38795,7 +38796,7 @@
         <v>373</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -39018,7 +39019,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D16" s="86" t="s">
         <v>6</v>
@@ -39027,7 +39028,7 @@
         <v>548</v>
       </c>
       <c r="F16" s="86" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G16" s="87" t="s">
         <v>547</v>
@@ -39192,7 +39193,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D22" s="86" t="s">
         <v>6</v>
@@ -39201,7 +39202,7 @@
         <v>548</v>
       </c>
       <c r="F22" s="86" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G22" s="87" t="s">
         <v>547</v>
@@ -39366,7 +39367,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D28" s="86" t="s">
         <v>6</v>
@@ -39375,7 +39376,7 @@
         <v>548</v>
       </c>
       <c r="F28" s="86" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G28" s="87" t="s">
         <v>547</v>
@@ -39540,7 +39541,7 @@
         <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D34" s="86" t="s">
         <v>6</v>
@@ -39549,7 +39550,7 @@
         <v>548</v>
       </c>
       <c r="F34" s="86" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G34" s="87" t="s">
         <v>547</v>
@@ -39687,7 +39688,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -39716,7 +39717,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -39765,7 +39766,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="87" t="s">
         <v>353</v>
@@ -39820,7 +39821,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="86" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="86" t="s">
         <v>3</v>
@@ -39866,13 +39867,13 @@
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -39881,7 +39882,7 @@
         <v>373</v>
       </c>
       <c r="F8" s="86" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -40069,7 +40070,7 @@
     </row>
     <row r="15" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B15" s="86" t="s">
         <v>24</v>
@@ -40087,7 +40088,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="87" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H15" s="86" t="s">
         <v>3</v>
@@ -40127,7 +40128,7 @@
     </row>
     <row r="17" spans="1:9" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B17" s="86" t="s">
         <v>41</v>
@@ -40139,13 +40140,13 @@
         <v>6</v>
       </c>
       <c r="E17" s="86" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F17" s="86" t="s">
         <v>393</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H17" s="86" t="s">
         <v>3</v>
@@ -40249,7 +40250,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -40284,7 +40285,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -40333,10 +40334,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="91" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="87" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>3</v>
@@ -40388,13 +40389,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>3</v>
@@ -40434,7 +40435,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="97" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>24</v>
@@ -40446,13 +40447,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>3</v>
@@ -40492,7 +40493,7 @@
     </row>
     <row r="10" spans="1:9" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="97" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B10" s="87" t="s">
         <v>24</v>
@@ -40504,13 +40505,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F10" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="87" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H10" s="87" t="s">
         <v>3</v>
@@ -40550,7 +40551,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>40</v>
@@ -40562,13 +40563,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>3</v>
@@ -40608,7 +40609,7 @@
     </row>
     <row r="14" spans="1:9" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="97" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B14" s="87" t="s">
         <v>23</v>
@@ -40620,13 +40621,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G14" s="87" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H14" s="87" t="s">
         <v>3</v>
@@ -40637,7 +40638,7 @@
     </row>
     <row r="15" spans="1:9" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B15" s="87" t="s">
         <v>24</v>
@@ -40649,13 +40650,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F15" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="87" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H15" s="87" t="s">
         <v>3</v>
@@ -40695,7 +40696,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>3</v>
@@ -40713,7 +40714,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -40724,7 +40725,7 @@
     </row>
     <row r="18" spans="1:9" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="97" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B18" s="87" t="s">
         <v>24</v>
@@ -40736,13 +40737,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="87" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F18" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="87" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H18" s="87" t="s">
         <v>3</v>
@@ -40842,7 +40843,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I1" s="76"/>
     </row>
@@ -40872,7 +40873,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40921,10 +40922,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="91" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="87" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>3</v>
@@ -40976,13 +40977,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>3</v>
@@ -41022,7 +41023,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>24</v>
@@ -41034,13 +41035,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>3</v>
@@ -41138,7 +41139,7 @@
     </row>
     <row r="12" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B12" s="87" t="s">
         <v>24</v>
@@ -41150,13 +41151,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F12" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H12" s="87" t="s">
         <v>3</v>
@@ -41196,7 +41197,7 @@
     </row>
     <row r="14" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B14" s="87" t="s">
         <v>24</v>
@@ -41208,13 +41209,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F14" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="87" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H14" s="87" t="s">
         <v>3</v>
@@ -41254,13 +41255,13 @@
     </row>
     <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -41272,7 +41273,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>66</v>
@@ -41283,13 +41284,13 @@
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>3</v>
@@ -41301,7 +41302,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>66</v>
@@ -41312,7 +41313,7 @@
     </row>
     <row r="18" spans="1:9" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B18" s="87" t="s">
         <v>24</v>
@@ -41324,13 +41325,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="87" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F18" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="87" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H18" s="87" t="s">
         <v>3</v>
@@ -41370,7 +41371,7 @@
     </row>
     <row r="20" spans="1:9" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B20" s="86" t="s">
         <v>23</v>
@@ -41382,13 +41383,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="87" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G20" s="87" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H20" s="86" t="s">
         <v>3</v>
@@ -41492,7 +41493,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I1" s="76"/>
     </row>
@@ -41522,7 +41523,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -41571,10 +41572,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="91" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="87" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>3</v>
@@ -41626,13 +41627,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>3</v>
@@ -41672,7 +41673,7 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>24</v>
@@ -41684,13 +41685,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>3</v>
@@ -41730,25 +41731,25 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -41788,7 +41789,7 @@
     </row>
     <row r="12" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B12" s="87" t="s">
         <v>24</v>
@@ -41800,13 +41801,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F12" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H12" s="87" t="s">
         <v>3</v>
@@ -41846,7 +41847,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>40</v>
@@ -41858,13 +41859,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="87" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>3</v>
@@ -41875,7 +41876,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B15" s="87" t="s">
         <v>24</v>
@@ -41887,13 +41888,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F15" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="87" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H15" s="87" t="s">
         <v>3</v>
@@ -41974,7 +41975,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>3</v>
@@ -41991,7 +41992,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B19" s="87" t="s">
         <v>24</v>
@@ -42009,7 +42010,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>3</v>
@@ -42049,7 +42050,7 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B21" s="87" t="s">
         <v>24</v>
@@ -42061,13 +42062,13 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F21" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="87" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H21" s="87" t="s">
         <v>3</v>
@@ -42078,7 +42079,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B22" s="87" t="s">
         <v>24</v>
@@ -42090,13 +42091,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="87" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F22" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="87" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H22" s="87" t="s">
         <v>3</v>
@@ -42147,7 +42148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A793A45-4F0D-4302-B0EB-C6C50901F5C7}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -42167,7 +42168,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I1" s="76"/>
     </row>
@@ -42197,7 +42198,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -42246,10 +42247,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="91" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="87" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>3</v>
@@ -42301,13 +42302,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>3</v>
@@ -42347,13 +42348,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -42362,7 +42363,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -42405,7 +42406,7 @@
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>24</v>
@@ -42579,7 +42580,7 @@
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
@@ -42591,13 +42592,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="87" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F16" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="87" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H16" s="87" t="s">
         <v>3</v>
@@ -42608,7 +42609,7 @@
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
@@ -42620,13 +42621,13 @@
         <v>6</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H17" s="87" t="s">
         <v>3</v>
@@ -42666,7 +42667,7 @@
     </row>
     <row r="19" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -42678,13 +42679,13 @@
         <v>6</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F19" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>3</v>
@@ -42736,13 +42737,13 @@
         <v>6</v>
       </c>
       <c r="E21" s="87" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F21" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="87" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H21" s="87" t="s">
         <v>3</v>
@@ -42782,7 +42783,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
@@ -42794,13 +42795,13 @@
         <v>6</v>
       </c>
       <c r="E23" s="87" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F23" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="87" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H23" s="87" t="s">
         <v>3</v>
@@ -42840,7 +42841,7 @@
     </row>
     <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
@@ -42852,13 +42853,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="87" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F25" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="87" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H25" s="87" t="s">
         <v>3</v>
@@ -42898,7 +42899,7 @@
     </row>
     <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>24</v>
@@ -42910,13 +42911,13 @@
         <v>6</v>
       </c>
       <c r="E27" s="87" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F27" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="87" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H27" s="87" t="s">
         <v>3</v>
@@ -42968,13 +42969,13 @@
         <v>6</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H29" s="87" t="s">
         <v>3</v>
@@ -43058,7 +43059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5F0C0A-5756-4F87-A0A9-58013CC90ECD}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -43078,7 +43079,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -43107,7 +43108,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -43156,10 +43157,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="91" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="87" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H4" s="87" t="s">
         <v>3</v>
@@ -43211,13 +43212,13 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="87" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H6" s="87" t="s">
         <v>3</v>
@@ -43257,13 +43258,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -43272,7 +43273,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -43489,7 +43490,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B16" s="86" t="s">
         <v>24</v>
@@ -43518,7 +43519,7 @@
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>40</v>
@@ -43536,7 +43537,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -43547,7 +43548,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
@@ -43559,13 +43560,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -43605,7 +43606,7 @@
     </row>
     <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
@@ -43617,13 +43618,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -43634,7 +43635,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>24</v>
@@ -43646,13 +43647,13 @@
         <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -43692,7 +43693,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B23" s="86" t="s">
         <v>24</v>
@@ -43704,7 +43705,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F23" s="86" t="s">
         <v>3</v>
@@ -43750,7 +43751,7 @@
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
@@ -43762,13 +43763,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>3</v>
@@ -43779,7 +43780,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
@@ -43791,13 +43792,13 @@
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -43820,13 +43821,13 @@
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -43903,7 +43904,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -43938,7 +43939,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -43987,7 +43988,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -44042,7 +44043,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -44094,7 +44095,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -44103,7 +44104,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -44262,7 +44263,7 @@
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -44274,7 +44275,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -44332,7 +44333,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>3</v>
@@ -44390,7 +44391,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -44506,7 +44507,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -44610,7 +44611,7 @@
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>41</v>
@@ -44622,13 +44623,13 @@
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -44726,7 +44727,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -44775,7 +44776,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -44830,7 +44831,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -44882,7 +44883,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -44891,7 +44892,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -45062,7 +45063,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>3</v>
@@ -45294,7 +45295,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>149</v>
@@ -45457,7 +45458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D52163-F501-45EC-B3EC-58092E96FCDA}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -45475,7 +45476,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -45510,7 +45511,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -45559,7 +45560,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -45614,7 +45615,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -45666,7 +45667,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -45675,7 +45676,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -46008,7 +46009,7 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>41</v>
@@ -46020,13 +46021,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -46079,10 +46080,10 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D5121D-03D8-4A14-A309-C397566E883D}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46101,7 +46102,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -46130,7 +46131,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -46179,7 +46180,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -46234,7 +46235,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -46286,7 +46287,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -46295,7 +46296,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -46570,7 +46571,7 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -46582,13 +46583,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -46597,29 +46598,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -46628,94 +46629,152 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>974</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>978</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2 D22 B22" xr:uid="{5AE66AA1-347B-4C50-8B79-1B699640DA57}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2 D24 B24" xr:uid="{5AE66AA1-347B-4C50-8B79-1B699640DA57}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -46740,10 +46799,10 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3014653A-3F19-4F2D-8B8A-6805484A22A6}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46762,7 +46821,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -46791,7 +46850,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -46840,7 +46899,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -46895,7 +46954,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -46941,7 +47000,7 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>24</v>
@@ -46953,13 +47012,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="87" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H8" s="87" t="s">
         <v>3</v>
@@ -46999,25 +47058,25 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -47057,7 +47116,7 @@
     </row>
     <row r="12" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B12" s="87" t="s">
         <v>24</v>
@@ -47069,13 +47128,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F12" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="87" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H12" s="87" t="s">
         <v>3</v>
@@ -47115,7 +47174,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>40</v>
@@ -47127,13 +47186,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="87" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>3</v>
@@ -47144,7 +47203,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B15" s="87" t="s">
         <v>24</v>
@@ -47156,13 +47215,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="87" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F15" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="87" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H15" s="87" t="s">
         <v>3</v>
@@ -47243,7 +47302,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>3</v>
@@ -47289,7 +47348,7 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -47301,13 +47360,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -47376,7 +47435,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
@@ -47388,13 +47447,13 @@
         <v>6</v>
       </c>
       <c r="E23" s="86" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F23" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="87" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H23" s="87" t="s">
         <v>3</v>
@@ -47440,7 +47499,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>6</v>
@@ -47449,7 +47508,7 @@
         <v>309</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>310</v>
@@ -47550,7 +47609,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>3</v>
@@ -47568,7 +47627,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -47666,7 +47725,7 @@
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>41</v>
@@ -47678,13 +47737,13 @@
         <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -47693,38 +47752,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="D35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2 D34 B34" xr:uid="{B7847B98-0893-41DF-BC30-F41941A9B1A7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2 D35 B35" xr:uid="{B7847B98-0893-41DF-BC30-F41941A9B1A7}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -47737,10 +47825,10 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282795A1-C97F-4104-89E2-A65AD44F744E}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47759,7 +47847,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -47794,7 +47882,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -47843,7 +47931,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -47898,7 +47986,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -47950,7 +48038,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -47959,7 +48047,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -48188,13 +48276,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>3</v>
@@ -48234,7 +48322,7 @@
     </row>
     <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -48246,13 +48334,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -48304,7 +48392,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>3</v>
@@ -48319,38 +48407,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:9" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="37" t="s">
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="37" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2 D21 B21" xr:uid="{52EE88AE-232D-4FFF-8911-E9E6F229DAC3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2 D22 B22" xr:uid="{52EE88AE-232D-4FFF-8911-E9E6F229DAC3}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -48386,7 +48503,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -48422,7 +48539,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -48471,7 +48588,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -48526,7 +48643,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -48572,7 +48689,7 @@
     </row>
     <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>41</v>
@@ -48584,13 +48701,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -48601,7 +48718,7 @@
     </row>
     <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>41</v>
@@ -48613,13 +48730,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -48630,7 +48747,7 @@
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>41</v>
@@ -48642,13 +48759,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -48659,7 +48776,7 @@
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>41</v>
@@ -48671,13 +48788,13 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>3</v>
@@ -48688,7 +48805,7 @@
     </row>
     <row r="12" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -48700,13 +48817,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -48717,7 +48834,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -48729,13 +48846,13 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>3</v>
@@ -48746,7 +48863,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>41</v>
@@ -48758,13 +48875,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -48775,7 +48892,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -48787,13 +48904,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -48871,7 +48988,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -48907,7 +49024,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -48956,7 +49073,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -49011,7 +49128,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -49086,7 +49203,7 @@
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -49098,13 +49215,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -49144,7 +49261,7 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -49156,13 +49273,13 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>3</v>
@@ -49202,7 +49319,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -49214,13 +49331,13 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>3</v>
@@ -49231,7 +49348,7 @@
     </row>
     <row r="14" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -49243,13 +49360,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -49287,7 +49404,7 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -49299,13 +49416,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>3</v>
@@ -49345,7 +49462,7 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>41</v>
@@ -49357,13 +49474,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -49441,7 +49558,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -49478,7 +49595,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -49527,7 +49644,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -49582,7 +49699,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -49628,7 +49745,7 @@
     </row>
     <row r="8" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -49640,13 +49757,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -49684,7 +49801,7 @@
     </row>
     <row r="10" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -49696,13 +49813,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -49781,7 +49898,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -49818,7 +49935,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -49867,7 +49984,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -49922,7 +50039,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -49968,7 +50085,7 @@
     </row>
     <row r="8" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -49980,13 +50097,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -50015,7 +50132,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -50053,7 +50170,7 @@
     </row>
     <row r="11" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>41</v>
@@ -50065,13 +50182,13 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>3</v>
@@ -50149,7 +50266,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -50184,7 +50301,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -50233,7 +50350,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -50288,7 +50405,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -50340,7 +50457,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -50349,7 +50466,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -50508,7 +50625,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
@@ -50520,13 +50637,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -50537,7 +50654,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>41</v>
@@ -50549,13 +50666,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -50566,7 +50683,7 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
@@ -50578,13 +50695,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>3</v>
@@ -50659,7 +50776,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -50694,7 +50811,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -50743,7 +50860,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -50798,7 +50915,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -50850,7 +50967,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -50859,7 +50976,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -51018,7 +51135,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
@@ -51030,13 +51147,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -51047,7 +51164,7 @@
     </row>
     <row r="15" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>41</v>
@@ -51059,13 +51176,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -51076,7 +51193,7 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
@@ -51088,13 +51205,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>3</v>
@@ -51192,7 +51309,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -51241,7 +51358,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -51296,7 +51413,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -51348,7 +51465,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -51357,7 +51474,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -51516,7 +51633,7 @@
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>7</v>
@@ -51528,7 +51645,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>3</v>
@@ -51586,7 +51703,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -51644,7 +51761,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -51760,7 +51877,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -51879,7 +51996,7 @@
         <v>212</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>211</v>
@@ -51934,7 +52051,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>3</v>
@@ -51992,7 +52109,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -52050,7 +52167,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>3</v>
@@ -52102,16 +52219,16 @@
         <v>22</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>133</v>
@@ -52322,7 +52439,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -52359,7 +52476,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -52408,7 +52525,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -52463,7 +52580,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -52515,7 +52632,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
@@ -52524,7 +52641,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -52683,7 +52800,7 @@
     </row>
     <row r="14" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
@@ -52695,13 +52812,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -52741,7 +52858,7 @@
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
@@ -52753,13 +52870,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>3</v>
@@ -52799,7 +52916,7 @@
     </row>
     <row r="18" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
@@ -52811,13 +52928,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -52857,7 +52974,7 @@
     </row>
     <row r="20" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
@@ -52869,13 +52986,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -52915,7 +53032,7 @@
     </row>
     <row r="22" spans="1:9" s="102" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>24</v>
@@ -52927,13 +53044,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -52973,7 +53090,7 @@
     </row>
     <row r="24" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
@@ -52985,13 +53102,13 @@
         <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -53031,7 +53148,7 @@
     </row>
     <row r="26" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
@@ -53043,13 +53160,13 @@
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -53152,7 +53269,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -53189,7 +53306,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -53238,7 +53355,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -53293,7 +53410,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -53339,7 +53456,7 @@
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -53351,13 +53468,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -53397,7 +53514,7 @@
     </row>
     <row r="10" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -53409,13 +53526,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -53455,7 +53572,7 @@
     </row>
     <row r="12" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -53467,13 +53584,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -53513,7 +53630,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -53525,13 +53642,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -53581,13 +53698,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>3</v>
@@ -53688,13 +53805,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>911</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
+      <c r="A1" s="108" t="s">
+        <v>909</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -53722,7 +53839,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -53771,7 +53888,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>353</v>
@@ -53791,7 +53908,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>3</v>
@@ -53826,7 +53943,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>3</v>
@@ -53930,7 +54047,7 @@
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>24</v>
@@ -53942,13 +54059,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>3</v>
@@ -54046,7 +54163,7 @@
     </row>
     <row r="14" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>24</v>
@@ -54058,13 +54175,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>3</v>
@@ -54104,7 +54221,7 @@
     </row>
     <row r="16" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>24</v>
@@ -54116,7 +54233,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>3</v>
@@ -54133,7 +54250,7 @@
     </row>
     <row r="17" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>24</v>
@@ -54145,7 +54262,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>3</v>
@@ -54191,7 +54308,7 @@
     </row>
     <row r="19" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>24</v>
@@ -54203,13 +54320,13 @@
         <v>6</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H19" s="34" t="s">
         <v>3</v>
@@ -54220,7 +54337,7 @@
     </row>
     <row r="20" spans="1:9" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>24</v>
@@ -54232,7 +54349,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>3</v>
@@ -54278,7 +54395,7 @@
     </row>
     <row r="22" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>24</v>
@@ -54290,13 +54407,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F22" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>3</v>
@@ -54307,7 +54424,7 @@
     </row>
     <row r="23" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>24</v>
@@ -54319,13 +54436,13 @@
         <v>6</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F23" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>3</v>
@@ -54365,7 +54482,7 @@
     </row>
     <row r="25" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>24</v>
@@ -54377,13 +54494,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>3</v>
@@ -54423,7 +54540,7 @@
     </row>
     <row r="27" spans="1:9" s="36" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>24</v>
@@ -54441,7 +54558,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H27" s="34" t="s">
         <v>3</v>
@@ -54539,7 +54656,7 @@
     </row>
     <row r="31" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>24</v>
@@ -54597,7 +54714,7 @@
     </row>
     <row r="33" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>23</v>
@@ -54609,7 +54726,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>364</v>
@@ -54626,7 +54743,7 @@
     </row>
     <row r="34" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>23</v>
@@ -54638,7 +54755,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F34" s="34" t="s">
         <v>362</v>
@@ -54655,7 +54772,7 @@
     </row>
     <row r="35" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B35" s="34" t="s">
         <v>23</v>
@@ -54667,13 +54784,13 @@
         <v>6</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>3</v>
@@ -54684,7 +54801,7 @@
     </row>
     <row r="36" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>23</v>
@@ -54696,13 +54813,13 @@
         <v>6</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>3</v>
@@ -54755,8 +54872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D92B0AE-D9DB-4ABF-A451-A00CF37D69F4}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54773,12 +54890,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
-        <v>912</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="A1" s="108" t="s">
+        <v>910</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -54806,7 +54923,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -54829,7 +54946,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H3" s="34" t="s">
         <v>3</v>
@@ -54855,10 +54972,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>3</v>
@@ -54910,7 +55027,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -54974,7 +55091,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>3</v>
@@ -55014,7 +55131,7 @@
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>24</v>
@@ -55026,13 +55143,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H10" s="34" t="s">
         <v>3</v>
@@ -55130,7 +55247,7 @@
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>24</v>
@@ -55142,13 +55259,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>3</v>
@@ -55188,7 +55305,7 @@
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>24</v>
@@ -55200,13 +55317,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>3</v>
@@ -55246,7 +55363,7 @@
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>24</v>
@@ -55258,13 +55375,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H18" s="34" t="s">
         <v>3</v>
@@ -55304,7 +55421,7 @@
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>24</v>
@@ -55316,13 +55433,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>3</v>
@@ -55362,7 +55479,7 @@
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>24</v>
@@ -55380,7 +55497,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>3</v>
@@ -55438,7 +55555,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>3</v>
@@ -55478,7 +55595,7 @@
     </row>
     <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>24</v>
@@ -55490,13 +55607,13 @@
         <v>6</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>3</v>
@@ -55525,7 +55642,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>3</v>
@@ -55623,7 +55740,7 @@
     </row>
     <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>24</v>
@@ -55635,13 +55752,13 @@
         <v>6</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H31" s="35" t="s">
         <v>3</v>
@@ -55681,7 +55798,7 @@
     </row>
     <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>24</v>
@@ -55693,13 +55810,13 @@
         <v>6</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F33" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H33" s="35" t="s">
         <v>3</v>
@@ -55739,7 +55856,7 @@
     </row>
     <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>41</v>
@@ -55751,13 +55868,13 @@
         <v>6</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>1099</v>
+        <v>1127</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H35" s="35" t="s">
         <v>3</v>
@@ -55915,7 +56032,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -55964,7 +56081,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -56019,7 +56136,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -56071,7 +56188,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -56080,7 +56197,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -56483,7 +56600,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>3</v>
@@ -56805,7 +56922,7 @@
         <v>212</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>216</v>
@@ -56950,7 +57067,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -56999,7 +57116,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -57054,7 +57171,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -57106,7 +57223,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -57115,7 +57232,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -57518,7 +57635,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>3</v>
@@ -57753,7 +57870,7 @@
         <v>212</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>216</v>
@@ -57855,8 +57972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92C911F-D43E-4CC6-96D2-495762D49EEC}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57896,7 +58013,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -57945,7 +58062,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>3</v>
@@ -58000,7 +58117,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -58052,7 +58169,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
@@ -58061,7 +58178,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -58452,7 +58569,7 @@
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>571</v>
+        <v>1126</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>40</v>
@@ -58464,13 +58581,13 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>883</v>
+        <v>1125</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>3</v>
@@ -58522,7 +58639,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>883</v>
+        <v>1125</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -58580,7 +58697,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
@@ -58638,7 +58755,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -58696,7 +58813,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -58812,7 +58929,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -58931,7 +59048,7 @@
         <v>212</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>216</v>

--- a/TestCases/InputSheet.xlsx
+++ b/TestCases/InputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_iWAgent 1.16\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0D98D7-6AC5-4FAE-9ADF-AFB267B3977E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BFB68-3A50-4E50-98D5-3D93998B7E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="43" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="12" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15812" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15812" uniqueCount="1129">
   <si>
     <t>Description</t>
   </si>
@@ -2682,9 +2682,6 @@
     <t>Submission should be opened in new tab</t>
   </si>
   <si>
-    <t>//td[3]/a[1]</t>
-  </si>
-  <si>
     <t>select  the submission from the list</t>
   </si>
   <si>
@@ -3381,15 +3378,9 @@
     <t>Go to Settings Page and verify user is able to enable email for the notifications</t>
   </si>
   <si>
-    <t>ETANERCEPT 50 mg Solution For Injection In Pre-Filled Pen Enbrel</t>
-  </si>
-  <si>
     <t>//body/div[@id='root']/div[1]/div[1]/section[1]/section[1]/main[1]/div[2]/div[1]/div[1]/div[5]/div[1]/div[3]/div[1]/form[1]/div[1]/div[1]/div[1]/div[2]/button[1]</t>
   </si>
   <si>
-    <t>//li[@title='ETANERCEPT 50 mg Solution For Injection In Pre-Filled Pen Enbrel']</t>
-  </si>
-  <si>
     <t>//li[@title='Albania']</t>
   </si>
   <si>
@@ -3474,7 +3465,19 @@
     <t>To hover on Projected  date</t>
   </si>
   <si>
-    <t>//td[contains(text(),'ETANERCEPT 50 mg Solution For Injection In Pre-Fil')]</t>
+    <t>//span[@class='ant-alert-message']</t>
+  </si>
+  <si>
+    <t>//li[@title='AZITHROMYCIN 500 mg Tablet, Film Coated Zitromax']</t>
+  </si>
+  <si>
+    <t>//td[3]</t>
+  </si>
+  <si>
+    <t>//td[normalize-space()='AZITHROMYCIN 500 mg Tablet, Film Coated Zitromax']</t>
+  </si>
+  <si>
+    <t>AZITHROMYCIN 500 mg Tablet, Film Coated Zitromax</t>
   </si>
 </sst>
 </file>
@@ -4210,7 +4213,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4252,7 +4255,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4356,7 +4359,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -4417,7 +4420,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -5777,7 +5780,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5881,7 +5884,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -6841,7 +6844,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6945,7 +6948,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -7409,7 +7412,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>3</v>
@@ -7467,7 +7470,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>3</v>
@@ -7846,7 +7849,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7950,7 +7953,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -8561,7 +8564,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8665,7 +8668,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -8726,7 +8729,7 @@
         <v>309</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>310</v>
@@ -8885,7 +8888,7 @@
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>40</v>
@@ -8897,13 +8900,13 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>3</v>
@@ -8943,7 +8946,7 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>23</v>
@@ -8958,10 +8961,10 @@
         <v>335</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>3</v>
@@ -9102,7 +9105,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9206,7 +9209,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -9817,7 +9820,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9921,7 +9924,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -10880,7 +10883,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10984,7 +10987,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -11641,7 +11644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCE9C13-4CD1-44F0-9C0F-C2E534D892AC}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -11683,7 +11686,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11787,7 +11790,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -12747,7 +12750,7 @@
         <v>754</v>
       </c>
       <c r="F38" s="41">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>340</v>
@@ -12892,7 +12895,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12996,7 +12999,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -13402,7 +13405,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F19" s="26">
         <v>44409</v>
@@ -13735,7 +13738,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13839,7 +13842,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -14586,7 +14589,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14690,7 +14693,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -15314,7 +15317,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -15418,7 +15421,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -16148,7 +16151,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16252,7 +16255,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -17272,7 +17275,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17376,7 +17379,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -17956,7 +17959,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>3</v>
@@ -18014,7 +18017,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>3</v>
@@ -18188,10 +18191,10 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F34" s="30" t="s">
         <v>876</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>877</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>684</v>
@@ -18334,7 +18337,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18989,7 +18992,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
@@ -19047,7 +19050,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>3</v>
@@ -19105,7 +19108,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>3</v>
@@ -19317,7 +19320,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -19421,7 +19424,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -22347,7 +22350,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -22451,7 +22454,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>3</v>
@@ -22509,7 +22512,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>3</v>
@@ -22567,7 +22570,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>3</v>
@@ -22857,7 +22860,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -22961,7 +22964,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>3</v>
@@ -23309,7 +23312,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>3</v>
@@ -23657,7 +23660,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>3</v>
@@ -23718,7 +23721,7 @@
         <v>824</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>408</v>
@@ -23747,7 +23750,7 @@
         <v>823</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G33" s="30" t="s">
         <v>407</v>
@@ -23857,7 +23860,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -23961,7 +23964,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>3</v>
@@ -24779,7 +24782,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>3</v>
@@ -24920,7 +24923,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -25024,7 +25027,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -25314,7 +25317,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F16" s="50" t="s">
         <v>3</v>
@@ -25372,7 +25375,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F18" s="50" t="s">
         <v>3</v>
@@ -25430,7 +25433,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F20" s="50" t="s">
         <v>3</v>
@@ -25720,7 +25723,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>3</v>
@@ -25882,7 +25885,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -25986,7 +25989,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -26552,7 +26555,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -26656,7 +26659,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -26717,7 +26720,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>310</v>
@@ -27143,7 +27146,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -27247,7 +27250,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>3</v>
@@ -28941,7 +28944,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -29045,7 +29048,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>3</v>
@@ -30627,7 +30630,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -30731,7 +30734,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>3</v>
@@ -30966,7 +30969,7 @@
         <v>402</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>386</v>
@@ -31198,7 +31201,7 @@
         <v>401</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="G21" s="34" t="s">
         <v>477</v>
@@ -31430,7 +31433,7 @@
         <v>462</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="G29" s="34" t="s">
         <v>472</v>
@@ -32097,7 +32100,7 @@
         <v>453</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>451</v>
@@ -32171,7 +32174,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -32200,7 +32203,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -32304,7 +32307,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -32701,7 +32704,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -32805,7 +32808,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -32924,7 +32927,7 @@
         <v>134</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>496</v>
@@ -33115,7 +33118,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -33144,7 +33147,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -33248,7 +33251,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -33480,7 +33483,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F14" s="53" t="s">
         <v>488</v>
@@ -33558,7 +33561,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -33587,7 +33590,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -34337,7 +34340,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -34366,7 +34369,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -34470,7 +34473,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
@@ -34760,7 +34763,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>3</v>
@@ -34818,7 +34821,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F18" s="87" t="s">
         <v>3</v>
@@ -34876,7 +34879,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="85" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>636</v>
@@ -34934,7 +34937,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F22" s="87" t="s">
         <v>3</v>
@@ -34995,7 +34998,7 @@
         <v>759</v>
       </c>
       <c r="F24" s="87" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G24" s="87" t="s">
         <v>520</v>
@@ -35369,7 +35372,7 @@
         <v>6</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>3</v>
@@ -35427,7 +35430,7 @@
         <v>6</v>
       </c>
       <c r="E39" s="87" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F39" s="87" t="s">
         <v>3</v>
@@ -35485,7 +35488,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="87" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F41" s="87" t="s">
         <v>634</v>
@@ -35543,7 +35546,7 @@
         <v>6</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F43" s="87" t="s">
         <v>3</v>
@@ -35677,7 +35680,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -35706,7 +35709,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
@@ -36204,7 +36207,7 @@
     </row>
     <row r="20" spans="1:9" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
@@ -36332,7 +36335,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F24" s="86" t="s">
         <v>3</v>
@@ -36436,7 +36439,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>24</v>
@@ -36523,7 +36526,7 @@
     </row>
     <row r="31" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>7</v>
@@ -36541,7 +36544,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>3</v>
@@ -36843,7 +36846,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -36947,7 +36950,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -37515,7 +37518,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -37619,7 +37622,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -37677,7 +37680,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>3</v>
@@ -37735,7 +37738,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>3</v>
@@ -37790,7 +37793,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>628</v>
@@ -37848,7 +37851,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>3</v>
@@ -37906,10 +37909,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>492</v>
@@ -38013,7 +38016,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -38042,7 +38045,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -38146,7 +38149,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -38602,7 +38605,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -38631,7 +38634,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -38735,7 +38738,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="86" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="86" t="s">
         <v>3</v>
@@ -39688,7 +39691,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -39717,7 +39720,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -39821,7 +39824,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="86" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="86" t="s">
         <v>3</v>
@@ -40140,7 +40143,7 @@
         <v>6</v>
       </c>
       <c r="E17" s="86" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F17" s="86" t="s">
         <v>393</v>
@@ -40250,7 +40253,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -40285,7 +40288,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -40389,7 +40392,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
@@ -40435,7 +40438,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="97" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>24</v>
@@ -40447,7 +40450,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>3</v>
@@ -40621,7 +40624,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F14" s="87" t="s">
         <v>774</v>
@@ -40696,7 +40699,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>3</v>
@@ -40714,7 +40717,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -40873,7 +40876,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40977,7 +40980,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
@@ -41023,7 +41026,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>24</v>
@@ -41035,7 +41038,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>3</v>
@@ -41151,7 +41154,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F12" s="87" t="s">
         <v>3</v>
@@ -41255,13 +41258,13 @@
     </row>
     <row r="16" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -41273,7 +41276,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>66</v>
@@ -41284,13 +41287,13 @@
     </row>
     <row r="17" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>3</v>
@@ -41302,7 +41305,7 @@
         <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>66</v>
@@ -41493,7 +41496,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I1" s="76"/>
     </row>
@@ -41523,7 +41526,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -41627,7 +41630,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
@@ -41673,7 +41676,7 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>24</v>
@@ -41685,7 +41688,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>3</v>
@@ -41746,7 +41749,7 @@
         <v>813</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>812</v>
@@ -41975,7 +41978,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>3</v>
@@ -42062,7 +42065,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F21" s="87" t="s">
         <v>3</v>
@@ -42168,7 +42171,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I1" s="76"/>
     </row>
@@ -42198,7 +42201,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -42302,7 +42305,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
@@ -42363,7 +42366,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -42580,7 +42583,7 @@
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
@@ -42598,7 +42601,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="87" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H16" s="87" t="s">
         <v>3</v>
@@ -42609,7 +42612,7 @@
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
@@ -42621,13 +42624,13 @@
         <v>6</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H17" s="87" t="s">
         <v>3</v>
@@ -42679,13 +42682,13 @@
         <v>6</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F19" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>3</v>
@@ -42737,13 +42740,13 @@
         <v>6</v>
       </c>
       <c r="E21" s="87" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F21" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="87" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H21" s="87" t="s">
         <v>3</v>
@@ -42841,7 +42844,7 @@
     </row>
     <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
@@ -42853,13 +42856,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="87" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F25" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="87" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H25" s="87" t="s">
         <v>3</v>
@@ -42911,13 +42914,13 @@
         <v>6</v>
       </c>
       <c r="E27" s="87" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F27" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="87" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H27" s="87" t="s">
         <v>3</v>
@@ -42969,13 +42972,13 @@
         <v>6</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H29" s="87" t="s">
         <v>3</v>
@@ -43059,7 +43062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5F0C0A-5756-4F87-A0A9-58013CC90ECD}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -43079,7 +43082,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -43108,7 +43111,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -43212,7 +43215,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="87" t="s">
         <v>3</v>
@@ -43560,7 +43563,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -43618,7 +43621,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -43751,7 +43754,7 @@
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="50" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
@@ -43763,13 +43766,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>3</v>
@@ -43821,7 +43824,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -43904,7 +43907,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -43939,7 +43942,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -44043,7 +44046,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -44611,7 +44614,7 @@
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>41</v>
@@ -44623,13 +44626,13 @@
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -44727,7 +44730,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -44831,7 +44834,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -45295,7 +45298,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>149</v>
@@ -45476,7 +45479,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -45511,7 +45514,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -45615,7 +45618,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -46009,7 +46012,7 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>41</v>
@@ -46021,13 +46024,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -46082,8 +46085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D5121D-03D8-4A14-A309-C397566E883D}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46102,7 +46105,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -46131,7 +46134,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -46235,7 +46238,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -46296,7 +46299,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -46571,25 +46574,25 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>978</v>
-      </c>
       <c r="F18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -46685,9 +46688,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>41</v>
@@ -46699,13 +46702,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>976</v>
+        <v>1124</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -46801,7 +46804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3014653A-3F19-4F2D-8B8A-6805484A22A6}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -46821,7 +46824,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -46850,7 +46853,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -46954,7 +46957,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -47000,7 +47003,7 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>24</v>
@@ -47012,7 +47015,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F8" s="87" t="s">
         <v>3</v>
@@ -47073,7 +47076,7 @@
         <v>813</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>812</v>
@@ -47302,7 +47305,7 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>3</v>
@@ -47348,25 +47351,25 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>978</v>
-      </c>
       <c r="F20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -47435,7 +47438,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
@@ -47447,7 +47450,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="86" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F23" s="87" t="s">
         <v>3</v>
@@ -47508,7 +47511,7 @@
         <v>309</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>310</v>
@@ -47609,7 +47612,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>3</v>
@@ -47627,7 +47630,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -47725,7 +47728,7 @@
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>41</v>
@@ -47737,13 +47740,13 @@
         <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -47847,7 +47850,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -47882,7 +47885,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -47986,7 +47989,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -48047,7 +48050,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>310</v>
@@ -48276,7 +48279,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>3</v>
@@ -48322,7 +48325,7 @@
     </row>
     <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -48334,13 +48337,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -48392,7 +48395,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>3</v>
@@ -48503,7 +48506,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -48539,7 +48542,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -48643,7 +48646,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -48689,7 +48692,7 @@
     </row>
     <row r="8" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>41</v>
@@ -48701,13 +48704,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -48718,7 +48721,7 @@
     </row>
     <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>41</v>
@@ -48730,13 +48733,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -48747,7 +48750,7 @@
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>41</v>
@@ -48759,13 +48762,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -48776,7 +48779,7 @@
     </row>
     <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>41</v>
@@ -48788,13 +48791,13 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>3</v>
@@ -48805,7 +48808,7 @@
     </row>
     <row r="12" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -48817,13 +48820,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -48834,7 +48837,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -48846,13 +48849,13 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>3</v>
@@ -48863,7 +48866,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>41</v>
@@ -48875,13 +48878,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -48892,7 +48895,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -48904,13 +48907,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -48988,7 +48991,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -49024,7 +49027,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -49128,7 +49131,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -49203,7 +49206,7 @@
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
@@ -49215,13 +49218,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -49261,7 +49264,7 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -49273,13 +49276,13 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>3</v>
@@ -49319,7 +49322,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -49331,13 +49334,13 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>3</v>
@@ -49348,7 +49351,7 @@
     </row>
     <row r="14" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -49360,13 +49363,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -49404,7 +49407,7 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -49416,13 +49419,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>3</v>
@@ -49462,7 +49465,7 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>41</v>
@@ -49474,13 +49477,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -49558,7 +49561,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -49595,7 +49598,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -49699,7 +49702,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -49745,7 +49748,7 @@
     </row>
     <row r="8" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -49757,13 +49760,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -49801,7 +49804,7 @@
     </row>
     <row r="10" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -49813,13 +49816,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -49898,7 +49901,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -49935,7 +49938,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -50039,7 +50042,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -50085,7 +50088,7 @@
     </row>
     <row r="8" spans="1:9" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -50097,13 +50100,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -50132,7 +50135,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -50170,7 +50173,7 @@
     </row>
     <row r="11" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>41</v>
@@ -50182,13 +50185,13 @@
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>3</v>
@@ -50266,7 +50269,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -50301,7 +50304,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -50405,7 +50408,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -50625,7 +50628,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
@@ -50643,7 +50646,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -50654,7 +50657,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>41</v>
@@ -50666,13 +50669,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -50683,7 +50686,7 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
@@ -50695,13 +50698,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>3</v>
@@ -50776,7 +50779,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -50811,7 +50814,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -50915,7 +50918,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -51135,7 +51138,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
@@ -51153,7 +51156,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -51164,7 +51167,7 @@
     </row>
     <row r="15" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>41</v>
@@ -51176,13 +51179,13 @@
         <v>6</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -51193,7 +51196,7 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
@@ -51205,13 +51208,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>3</v>
@@ -51309,7 +51312,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -51413,7 +51416,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -52051,7 +52054,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>3</v>
@@ -52109,7 +52112,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -52439,7 +52442,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -52476,7 +52479,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -52580,7 +52583,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -52800,7 +52803,7 @@
     </row>
     <row r="14" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>40</v>
@@ -52818,7 +52821,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -52858,7 +52861,7 @@
     </row>
     <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
@@ -52870,13 +52873,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>3</v>
@@ -52916,7 +52919,7 @@
     </row>
     <row r="18" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
@@ -52928,13 +52931,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -52974,7 +52977,7 @@
     </row>
     <row r="20" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>24</v>
@@ -52986,13 +52989,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -53032,7 +53035,7 @@
     </row>
     <row r="22" spans="1:9" s="102" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>24</v>
@@ -53044,13 +53047,13 @@
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -53090,7 +53093,7 @@
     </row>
     <row r="24" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
@@ -53102,13 +53105,13 @@
         <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -53148,7 +53151,7 @@
     </row>
     <row r="26" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>24</v>
@@ -53160,13 +53163,13 @@
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -53269,7 +53272,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -53306,7 +53309,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -53410,7 +53413,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>3</v>
@@ -53456,7 +53459,7 @@
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -53468,13 +53471,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -53514,7 +53517,7 @@
     </row>
     <row r="10" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>7</v>
@@ -53526,13 +53529,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -53572,7 +53575,7 @@
     </row>
     <row r="12" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>7</v>
@@ -53584,13 +53587,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -53630,7 +53633,7 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>7</v>
@@ -53642,13 +53645,13 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -53698,13 +53701,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>3</v>
@@ -53806,7 +53809,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="108" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -53839,7 +53842,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -53908,7 +53911,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>3</v>
@@ -53943,7 +53946,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>3</v>
@@ -54047,7 +54050,7 @@
     </row>
     <row r="10" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>24</v>
@@ -54059,7 +54062,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>3</v>
@@ -54221,7 +54224,7 @@
     </row>
     <row r="16" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>24</v>
@@ -54250,7 +54253,7 @@
     </row>
     <row r="17" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>24</v>
@@ -54308,7 +54311,7 @@
     </row>
     <row r="19" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>24</v>
@@ -54320,13 +54323,13 @@
         <v>6</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F19" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H19" s="34" t="s">
         <v>3</v>
@@ -54337,7 +54340,7 @@
     </row>
     <row r="20" spans="1:9" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>24</v>
@@ -54395,7 +54398,7 @@
     </row>
     <row r="22" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>24</v>
@@ -54424,7 +54427,7 @@
     </row>
     <row r="23" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>24</v>
@@ -54482,7 +54485,7 @@
     </row>
     <row r="25" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>24</v>
@@ -54494,13 +54497,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>3</v>
@@ -54656,7 +54659,7 @@
     </row>
     <row r="31" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>24</v>
@@ -54714,7 +54717,7 @@
     </row>
     <row r="33" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>23</v>
@@ -54743,7 +54746,7 @@
     </row>
     <row r="34" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>23</v>
@@ -54772,7 +54775,7 @@
     </row>
     <row r="35" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B35" s="34" t="s">
         <v>23</v>
@@ -54801,7 +54804,7 @@
     </row>
     <row r="36" spans="1:9" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>23</v>
@@ -54872,7 +54875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D92B0AE-D9DB-4ABF-A451-A00CF37D69F4}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -54891,7 +54894,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="108" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
@@ -54923,7 +54926,7 @@
         <v>19</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -54975,7 +54978,7 @@
         <v>769</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H4" s="34" t="s">
         <v>3</v>
@@ -55027,7 +55030,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>3</v>
@@ -55091,7 +55094,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H8" s="34" t="s">
         <v>3</v>
@@ -55131,7 +55134,7 @@
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>24</v>
@@ -55143,7 +55146,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>3</v>
@@ -55265,7 +55268,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H14" s="34" t="s">
         <v>3</v>
@@ -55305,7 +55308,7 @@
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>24</v>
@@ -55317,13 +55320,13 @@
         <v>6</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>3</v>
@@ -55363,7 +55366,7 @@
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>24</v>
@@ -55375,13 +55378,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H18" s="34" t="s">
         <v>3</v>
@@ -55421,7 +55424,7 @@
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B20" s="34" t="s">
         <v>24</v>
@@ -55433,13 +55436,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>1098</v>
+        <v>1125</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>3</v>
@@ -55555,7 +55558,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>3</v>
@@ -55595,7 +55598,7 @@
     </row>
     <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>24</v>
@@ -55607,7 +55610,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>863</v>
+        <v>1126</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>3</v>
@@ -55752,7 +55755,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>3</v>
@@ -55871,7 +55874,7 @@
         <v>1127</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>1096</v>
+        <v>1128</v>
       </c>
       <c r="G35" s="34" t="s">
         <v>855</v>
@@ -56032,7 +56035,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -56136,7 +56139,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -57067,7 +57070,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -57171,7 +57174,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -58013,7 +58016,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -58117,7 +58120,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
@@ -58569,7 +58572,7 @@
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>40</v>
@@ -58581,7 +58584,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>3</v>
@@ -58639,7 +58642,7 @@
         <v>6</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>

--- a/TestCases/InputSheet.xlsx
+++ b/TestCases/InputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_iWAgent 1.16\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9BFB68-3A50-4E50-98D5-3D93998B7E9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311FB56A-D598-42B0-B825-46E9C4180B91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="48" activeTab="53" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="12" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15812" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15992" uniqueCount="1129">
   <si>
     <t>Description</t>
   </si>
@@ -3623,7 +3623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3871,6 +3871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11644,7 +11645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCE9C13-4CD1-44F0-9C0F-C2E534D892AC}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -13700,17 +13701,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -15279,17 +15280,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -16113,17 +16114,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -17237,17 +17238,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -18299,17 +18300,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -19282,17 +19283,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="107" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -22319,10 +22320,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="108"/>
+      <c r="B1" s="109"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -22824,15 +22825,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>737</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -23828,11 +23829,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -24886,15 +24887,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
       <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -26522,12 +26523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>672</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -37480,16 +37481,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>632</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="112"/>
       <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -40233,7 +40234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7889F16-B5DB-4A8B-A30B-2BFC8B6BABD3}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -41474,10 +41475,10 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36371807-1B2A-4586-A1D4-8CE0D7A75C93}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41827,7 +41828,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D13" s="87" t="s">
         <v>3</v>
@@ -41943,7 +41944,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D17" s="87" t="s">
         <v>3</v>
@@ -41993,56 +41994,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>809</v>
+        <v>16</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="87" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="F19" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>815</v>
+        <v>3</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="87" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>16</v>
+        <v>809</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>7</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" s="87" t="s">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="87" t="s">
-        <v>3</v>
+        <v>815</v>
       </c>
       <c r="H20" s="87" t="s">
         <v>3</v>
@@ -42051,38 +42052,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>811</v>
-      </c>
-      <c r="B21" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="F21" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="87" t="s">
-        <v>810</v>
-      </c>
-      <c r="H21" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>809</v>
       </c>
       <c r="B22" s="87" t="s">
         <v>24</v>
@@ -42093,48 +42094,135 @@
       <c r="D22" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="87" t="s">
+        <v>810</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>809</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="87" t="s">
         <v>808</v>
       </c>
-      <c r="F22" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="87" t="s">
+      <c r="F24" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="87" t="s">
         <v>807</v>
       </c>
-      <c r="H22" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="H24" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B26" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C26" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="87" t="s">
+      <c r="D26" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="87" t="s">
         <v>450</v>
       </c>
-      <c r="H23" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="H26" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -42149,10 +42237,10 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A793A45-4F0D-4302-B0EB-C6C50901F5C7}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42581,29 +42669,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>958</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>817</v>
-      </c>
-      <c r="F16" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="87" t="s">
-        <v>957</v>
-      </c>
-      <c r="H16" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -42612,7 +42700,7 @@
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
@@ -42624,13 +42712,13 @@
         <v>6</v>
       </c>
       <c r="E17" s="87" t="s">
-        <v>956</v>
+        <v>817</v>
       </c>
       <c r="F17" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="87" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="H17" s="87" t="s">
         <v>3</v>
@@ -42639,7 +42727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>16</v>
       </c>
@@ -42668,9 +42756,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>816</v>
+        <v>951</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -42682,13 +42770,13 @@
         <v>6</v>
       </c>
       <c r="E19" s="87" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F19" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="87" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>3</v>
@@ -42726,9 +42814,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>151</v>
+        <v>816</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>24</v>
@@ -42740,13 +42828,13 @@
         <v>6</v>
       </c>
       <c r="E21" s="87" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="F21" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="87" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H21" s="87" t="s">
         <v>3</v>
@@ -42763,7 +42851,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
@@ -42784,9 +42872,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>822</v>
+        <v>151</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>24</v>
@@ -42798,13 +42886,13 @@
         <v>6</v>
       </c>
       <c r="E23" s="87" t="s">
-        <v>804</v>
+        <v>953</v>
       </c>
       <c r="F23" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="87" t="s">
-        <v>821</v>
+        <v>952</v>
       </c>
       <c r="H23" s="87" t="s">
         <v>3</v>
@@ -42821,7 +42909,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
@@ -42842,9 +42930,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>951</v>
+        <v>822</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
@@ -42856,13 +42944,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="87" t="s">
-        <v>950</v>
+        <v>804</v>
       </c>
       <c r="F25" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="87" t="s">
-        <v>949</v>
+        <v>821</v>
       </c>
       <c r="H25" s="87" t="s">
         <v>3</v>
@@ -42900,9 +42988,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>820</v>
+        <v>951</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>24</v>
@@ -42914,13 +43002,13 @@
         <v>6</v>
       </c>
       <c r="E27" s="87" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="F27" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="87" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H27" s="87" t="s">
         <v>3</v>
@@ -42930,37 +43018,37 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="87" t="s">
+      <c r="A28" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="87" t="s">
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>151</v>
+        <v>820</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>24</v>
@@ -42972,13 +43060,13 @@
         <v>6</v>
       </c>
       <c r="E29" s="87" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="87" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H29" s="87" t="s">
         <v>3</v>
@@ -42995,59 +43083,117 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>946</v>
+      </c>
+      <c r="F31" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="87" t="s">
+        <v>945</v>
+      </c>
+      <c r="H31" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="D32" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B33" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C33" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="87" t="s">
+      <c r="D33" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="87" t="s">
         <v>450</v>
       </c>
-      <c r="H31" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="H33" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 B14:B15" xr:uid="{B2619F24-D48A-4C9C-BC2F-33418EC779CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 D14:D15" xr:uid="{B2619F24-D48A-4C9C-BC2F-33418EC779CB}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -43060,10 +43206,10 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5F0C0A-5756-4F87-A0A9-58013CC90ECD}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43491,143 +43637,143 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>844</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B17" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="C17" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="F16" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="F17" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>730</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>736</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="H19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>842</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>965</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>841</v>
+        <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -43638,7 +43784,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>840</v>
+        <v>736</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>24</v>
@@ -43649,14 +43795,14 @@
       <c r="D21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>839</v>
+      <c r="E21" s="3" t="s">
+        <v>966</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -43694,36 +43840,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>854</v>
-      </c>
-      <c r="B23" s="86" t="s">
+        <v>842</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="F23" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="86" t="s">
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>16</v>
       </c>
@@ -43752,9 +43898,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="50" t="s">
-        <v>964</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>840</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
@@ -43765,14 +43911,14 @@
       <c r="D25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>963</v>
+      <c r="E25" s="4" t="s">
+        <v>839</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>962</v>
+        <v>838</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>3</v>
@@ -43783,94 +43929,268 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="F27" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
+        <v>964</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>852</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="H31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="86" t="s">
+      <c r="B34" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C34" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="87" t="s">
+      <c r="D34" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="87" t="s">
         <v>450</v>
       </c>
-      <c r="H28" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="H34" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14:D15 B14:B15" xr:uid="{6560F142-2FC8-458A-84F1-6D88FC93A8D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 D14:D15" xr:uid="{6560F142-2FC8-458A-84F1-6D88FC93A8D6}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -43887,8 +44207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7075A40B-80FA-486E-A8DE-930CCC6F9C96}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44243,7 +44563,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>3</v>
@@ -44359,7 +44679,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>3</v>
@@ -44417,7 +44737,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>3</v>
@@ -44475,7 +44795,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
@@ -44533,7 +44853,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>3</v>
@@ -44591,7 +44911,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>3</v>
@@ -45459,10 +45779,10 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D52163-F501-45EC-B3EC-58092E96FCDA}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45815,7 +46135,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>3</v>
@@ -46039,38 +46359,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2 D21 B21" xr:uid="{6863DD1E-0A44-40BC-94C9-328F07829D17}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2 D22 B22" xr:uid="{6863DD1E-0A44-40BC-94C9-328F07829D17}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -46804,7 +47153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3014653A-3F19-4F2D-8B8A-6805484A22A6}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -47830,7 +48179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282795A1-C97F-4104-89E2-A65AD44F744E}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -48484,10 +48833,10 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65868C3-B43E-4E69-8C1C-5103FD9C445E}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48719,27 +49068,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>1010</v>
+    <row r="9" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1009</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1008</v>
+        <v>3</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1007</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -48750,7 +49099,7 @@
     </row>
     <row r="10" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>41</v>
@@ -48762,111 +49111,111 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>1002</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>998</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>995</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>992</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>41</v>
@@ -48878,76 +49227,308 @@
         <v>6</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>998</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>995</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>992</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>988</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="106" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="37" t="s">
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="37" t="s">
         <v>3</v>
       </c>
     </row>
@@ -48956,7 +49537,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2" xr:uid="{0B979CB1-C4AD-4CCE-AB07-233663F2C28D}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16 B16" xr:uid="{72BFBCAE-A8B6-45B2-9C2F-585634B466BA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24 B24" xr:uid="{72BFBCAE-A8B6-45B2-9C2F-585634B466BA}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -53808,13 +54389,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>908</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -54893,12 +55474,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>909</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">

--- a/TestCases/InputSheet.xlsx
+++ b/TestCases/InputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_iWAgent 1.16\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311FB56A-D598-42B0-B825-46E9C4180B91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D3879D-9688-4F89-8B86-2F1BB25E0A2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="48" activeTab="53" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="12" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15992" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15974" uniqueCount="1129">
   <si>
     <t>Description</t>
   </si>
@@ -12751,7 +12751,7 @@
         <v>754</v>
       </c>
       <c r="F38" s="41">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>340</v>
@@ -13684,10 +13684,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA5CE5-69B1-42C7-8BE5-9E31732D4859}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13924,7 +13924,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>3</v>
@@ -13982,7 +13982,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>3</v>
@@ -14040,224 +14040,224 @@
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>746</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="H19" s="10" t="s">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -14293,9 +14293,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>7</v>
@@ -14306,14 +14306,14 @@
       <c r="D22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>270</v>
+      <c r="E22" s="10" t="s">
+        <v>748</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>3</v>
@@ -14330,7 +14330,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>3</v>
@@ -14351,29 +14351,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="H24" s="10" t="s">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -14388,7 +14388,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>3</v>
@@ -14409,27 +14409,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>235</v>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>281</v>
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -14438,90 +14438,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -14533,7 +14475,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2" xr:uid="{683FE67D-7A2D-4AF6-B62D-02BAB4821BA8}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29 B29" xr:uid="{73E135A1-0640-43D3-A804-436365F905B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27 B27" xr:uid="{73E135A1-0640-43D3-A804-436365F905B0}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -15264,8 +15206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9D2EFA-2F36-432F-97BC-E8831E5D4629}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48835,7 +48777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65868C3-B43E-4E69-8C1C-5103FD9C445E}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>

--- a/TestCases/InputSheet.xlsx
+++ b/TestCases/InputSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New_iWAgent 1.16\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12AAE57-2A53-4711-B8FB-B8CE57C178F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C537250E-4298-4EFA-8043-74642AAF41C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="57" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9825" firstSheet="56" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="12" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15884" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15911" uniqueCount="1122">
   <si>
     <t>Description</t>
   </si>
@@ -3602,7 +3602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3850,6 +3850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11625,8 +11626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCE9C13-4CD1-44F0-9C0F-C2E534D892AC}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12731,7 +12732,7 @@
         <v>749</v>
       </c>
       <c r="F38" s="41">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>338</v>
@@ -13681,17 +13682,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -15202,17 +15203,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -16036,17 +16037,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -17160,17 +17161,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -17874,17 +17875,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -18857,17 +18858,17 @@
     <col min="9" max="9" width="12.5703125" style="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:9" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -21894,10 +21895,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>390</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -22428,15 +22429,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>732</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -23432,11 +23433,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
@@ -24490,15 +24491,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
       <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -26126,12 +26127,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>669</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -37113,16 +37114,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114"/>
       <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -50970,10 +50971,10 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3129F477-4E6A-4014-A27C-BBBC8DC29361}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51378,38 +51379,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>1059</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>1055</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>41</v>
@@ -51421,53 +51422,140 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2 D17 B17" xr:uid="{C279CBCB-2591-4125-A748-B4454F75FC7E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:D2 D20 B20" xr:uid="{C279CBCB-2591-4125-A748-B4454F75FC7E}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -54021,13 +54109,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>901</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -55088,7 +55176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D92B0AE-D9DB-4ABF-A451-A00CF37D69F4}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -55106,12 +55194,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>902</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
